--- a/biology/Zoologie/Agariciidae/Agariciidae.xlsx
+++ b/biology/Zoologie/Agariciidae/Agariciidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agariciidae est une famille de scléractiniaires (coraux durs).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Agaricia, dérivé du préfixe  "agaric-", sans doute de même origine que celle d'un champignon du genre Agaric, en référence à la forme du squelette de ce scléractiniaires, qui fait penser au chapeau d'un champignon.
 </t>
@@ -542,9 +556,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces coraux ont des tentacules fins, rarement visibles pendant le jour (exception faite de l'espèce Pavona explanulata). Tous les genres de cette familles sont coloniaux et hermatypiques. Les colonies sont massives, laminaires ou foliacées. Les corallites sont fondues, avec des cloisons mal définies formées par un élargissement des septo-costae. Les septa sont rarement fusionnées, et sont continues entre les corallites adjacents. Les marges sont lisses ou finement denticulées, et densément remplies. La famille des Siderastreidae est très proche[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces coraux ont des tentacules fins, rarement visibles pendant le jour (exception faite de l'espèce Pavona explanulata). Tous les genres de cette familles sont coloniaux et hermatypiques. Les colonies sont massives, laminaires ou foliacées. Les corallites sont fondues, avec des cloisons mal définies formées par un élargissement des septo-costae. Les septa sont rarement fusionnées, et sont continues entre les corallites adjacents. Les marges sont lisses ou finement denticulées, et densément remplies. La famille des Siderastreidae est très proche.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Agariciidae comprend les genres suivants :
 			Agaricia lamarcki
